--- a/data/trans_bre/P32C-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P32C-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-2.888141289961257</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-2.380389505160603</v>
+        <v>-2.380389505160602</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.2317935218454953</v>
@@ -649,7 +649,7 @@
         <v>-0.7813058390585428</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.6676369501150703</v>
+        <v>-0.6676369501150702</v>
       </c>
     </row>
     <row r="5">
@@ -660,16 +660,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.718307076025213</v>
+        <v>-2.662828446429398</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.334929234857212</v>
+        <v>-3.530313357523919</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.28098160547761</v>
+        <v>-5.412183393095972</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.779784181882468</v>
+        <v>-5.03217620908057</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>-1</v>
@@ -690,26 +690,26 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.789152490917293</v>
+        <v>3.28675081555096</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.8328171657852358</v>
+        <v>-0.9899000785558517</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.2035318135009881</v>
+        <v>-0.1449009645450184</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3619929826359717</v>
+        <v>0.2472155675496917</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.782511716349687</v>
+        <v>3.312868835610452</v>
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="n">
-        <v>0.5156485087317728</v>
+        <v>0.8126401045060121</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.7218585835243054</v>
+        <v>0.5383357727100427</v>
       </c>
     </row>
     <row r="7">
@@ -733,7 +733,7 @@
         <v>-0.6171491369842663</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.148790354319498</v>
+        <v>1.148790354319499</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.5264035135689588</v>
@@ -745,7 +745,7 @@
         <v>-0.5126564958116171</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1.710456093541731</v>
+        <v>1.710456093541732</v>
       </c>
     </row>
     <row r="8">
@@ -756,28 +756,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.950555985770254</v>
+        <v>-2.078263391742664</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.329962077500238</v>
+        <v>-2.403877107289369</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.363982188443292</v>
+        <v>-1.421618708833411</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.01520070984634948</v>
+        <v>-0.008325866697790663</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8717426139925644</v>
+        <v>-0.9031322474492283</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.9324286200947888</v>
+        <v>-0.9322129694856177</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.8753051421500422</v>
+        <v>-0.8947297568235959</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2784807318241266</v>
+        <v>-0.1441671307141816</v>
       </c>
     </row>
     <row r="9">
@@ -788,28 +788,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3101315102361251</v>
+        <v>0.2240478203016281</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.4233630443610202</v>
+        <v>-0.4521980877535391</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3731232141966109</v>
+        <v>0.2120938847226592</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.851673334546053</v>
+        <v>2.992156827624238</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4877477996671473</v>
+        <v>0.4726056581693375</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1352841159159117</v>
+        <v>-0.1767367892673594</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7632537719154761</v>
+        <v>0.3611141120468117</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>7.31065326011761</v>
+        <v>7.04845055929428</v>
       </c>
     </row>
     <row r="10">
@@ -833,7 +833,7 @@
         <v>-0.7337568404900541</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.78701090045736</v>
+        <v>-0.7870109004573602</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.7332876640234568</v>
@@ -845,7 +845,7 @@
         <v>-0.6890394119756578</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.7949412310077993</v>
+        <v>-0.7949412310077995</v>
       </c>
     </row>
     <row r="11">
@@ -856,20 +856,18 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.249404011746851</v>
+        <v>-3.178813023214092</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.107696634327167</v>
+        <v>-5.228538735484181</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.106693357483815</v>
+        <v>-2.096025121647569</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.248142618259154</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-2.21219757388642</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="inlineStr"/>
@@ -882,20 +880,18 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2862344705741079</v>
+        <v>0.2764122562487976</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.6755393610015735</v>
+        <v>-0.6431928209062439</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4318797835277089</v>
+        <v>0.4539765136553661</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01348225918586463</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>2.751807210298701</v>
-      </c>
+        <v>0.0102768051277446</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="inlineStr"/>
@@ -933,7 +929,7 @@
         <v>-0.6606630387311767</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.0807457276290006</v>
+        <v>0.08074572762900062</v>
       </c>
     </row>
     <row r="14">
@@ -944,28 +940,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.750585886683936</v>
+        <v>-1.733869069517858</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.458127561796583</v>
+        <v>-2.459186133100723</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.799329701609939</v>
+        <v>-1.839196767395231</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.739429723125653</v>
+        <v>-0.7263196978194788</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8139889596664097</v>
+        <v>-0.8038372109913711</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.9564255394417416</v>
+        <v>-0.9595286534020331</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.8746509930953505</v>
+        <v>-0.8944668755086296</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5484749106998672</v>
+        <v>-0.5374690709022198</v>
       </c>
     </row>
     <row r="15">
@@ -976,28 +972,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1399564633787552</v>
+        <v>0.1021196582867812</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-1.014164759123315</v>
+        <v>-1.035223117199617</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-0.3064095896853696</v>
+        <v>-0.3692702168869508</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.283955263790351</v>
+        <v>1.213022022117067</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1515639717510883</v>
+        <v>0.09945184461141389</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.5612157951253062</v>
+        <v>-0.561245258266481</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.1255298318932816</v>
+        <v>-0.1978523843117583</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.376384314042689</v>
+        <v>1.301629146695968</v>
       </c>
     </row>
     <row r="16">
